--- a/Code/Results/Cases/Case_2_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8708534503333283</v>
+        <v>0.4450399954297666</v>
       </c>
       <c r="C2">
-        <v>0.1330158170294702</v>
+        <v>0.2617755575175842</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06608856021685838</v>
+        <v>0.1473957609363019</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2760364106056983</v>
+        <v>0.5915530940608633</v>
       </c>
       <c r="H2">
-        <v>0.2773640890679374</v>
+        <v>0.7338712398171623</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7007408136591522</v>
+        <v>0.2191570370909233</v>
       </c>
       <c r="L2">
-        <v>0.1484853935734591</v>
+        <v>0.1894865821604412</v>
       </c>
       <c r="M2">
-        <v>0.1925966504238268</v>
+        <v>0.1380051491995147</v>
       </c>
       <c r="N2">
-        <v>0.8855917358276137</v>
+        <v>1.735146594377166</v>
       </c>
       <c r="O2">
-        <v>1.113372018124934</v>
+        <v>2.631368660826297</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7582705854457572</v>
+        <v>0.4125773520567861</v>
       </c>
       <c r="C3">
-        <v>0.1349351006649044</v>
+        <v>0.2629422262831156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06482569626430035</v>
+        <v>0.1479537794625685</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2770485380865537</v>
+        <v>0.5965272105873609</v>
       </c>
       <c r="H3">
-        <v>0.2828872670968465</v>
+        <v>0.7393926312946917</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6128679294740635</v>
+        <v>0.1915746033014472</v>
       </c>
       <c r="L3">
-        <v>0.1348436176305086</v>
+        <v>0.1868115878728389</v>
       </c>
       <c r="M3">
-        <v>0.1689154911427089</v>
+        <v>0.1316839357053077</v>
       </c>
       <c r="N3">
-        <v>0.9184837650515263</v>
+        <v>1.750151953579714</v>
       </c>
       <c r="O3">
-        <v>1.126779067260131</v>
+        <v>2.653261325625095</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.689258534989051</v>
+        <v>0.3927459779189064</v>
       </c>
       <c r="C4">
-        <v>0.1361868558884858</v>
+        <v>0.2637070686545115</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06413864613149833</v>
+        <v>0.1483565256792083</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2782893164937903</v>
+        <v>0.5999130226853993</v>
       </c>
       <c r="H4">
-        <v>0.2866775196727218</v>
+        <v>0.7430431519180374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5588395975638463</v>
+        <v>0.1745924537895007</v>
       </c>
       <c r="L4">
-        <v>0.1266016306138624</v>
+        <v>0.1852572552978131</v>
       </c>
       <c r="M4">
-        <v>0.15444480883653</v>
+        <v>0.1278529675646638</v>
       </c>
       <c r="N4">
-        <v>0.9396388824964248</v>
+        <v>1.759886326140663</v>
       </c>
       <c r="O4">
-        <v>1.137151831554604</v>
+        <v>2.667944423447992</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.661157442457835</v>
+        <v>0.3846905352847898</v>
       </c>
       <c r="C5">
-        <v>0.1367153103465206</v>
+        <v>0.2640309765569313</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06388027090778081</v>
+        <v>0.1485357946542116</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2789449325744044</v>
+        <v>0.6013761829536577</v>
       </c>
       <c r="H5">
-        <v>0.2883199343132432</v>
+        <v>0.7445963109172311</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5367997469192716</v>
+        <v>0.1676608909734796</v>
       </c>
       <c r="L5">
-        <v>0.1232748588570516</v>
+        <v>0.1846460965908463</v>
       </c>
       <c r="M5">
-        <v>0.1485635570149952</v>
+        <v>0.1263045974731405</v>
       </c>
       <c r="N5">
-        <v>0.9484964364046604</v>
+        <v>1.763984274442475</v>
       </c>
       <c r="O5">
-        <v>1.141899757215597</v>
+        <v>2.674240107995416</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6564924051620551</v>
+        <v>0.3833545248660073</v>
       </c>
       <c r="C6">
-        <v>0.1368041660686821</v>
+        <v>0.2640855007264058</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0638386551529333</v>
+        <v>0.1485664777959101</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2790626922906441</v>
+        <v>0.6016241779058902</v>
       </c>
       <c r="H6">
-        <v>0.2885984957386043</v>
+        <v>0.7448581724806544</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5331385458270574</v>
+        <v>0.1665092478193628</v>
       </c>
       <c r="L6">
-        <v>0.1227243261423467</v>
+        <v>0.1845459601526969</v>
       </c>
       <c r="M6">
-        <v>0.1475878737477991</v>
+        <v>0.1260482677274695</v>
       </c>
       <c r="N6">
-        <v>0.9499813913540933</v>
+        <v>1.764672657399778</v>
       </c>
       <c r="O6">
-        <v>1.142719114901197</v>
+        <v>2.675304362775833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6888794740544029</v>
+        <v>0.3926372332530548</v>
       </c>
       <c r="C7">
-        <v>0.1361939085979245</v>
+        <v>0.2637113874356736</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06413507491687653</v>
+        <v>0.1483588819967387</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2782975584917935</v>
+        <v>0.5999324176217655</v>
       </c>
       <c r="H7">
-        <v>0.2866992768340069</v>
+        <v>0.7430638328899022</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5585424584634353</v>
+        <v>0.1744990170251413</v>
       </c>
       <c r="L7">
-        <v>0.1265566377755931</v>
+        <v>0.1852489228182534</v>
       </c>
       <c r="M7">
-        <v>0.1543654311499942</v>
+        <v>0.1278320337750962</v>
       </c>
       <c r="N7">
-        <v>0.9397573861608954</v>
+        <v>1.759941061504396</v>
       </c>
       <c r="O7">
-        <v>1.137213776935781</v>
+        <v>2.668028064932514</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.83200688864261</v>
+        <v>0.4338263310911259</v>
       </c>
       <c r="C8">
-        <v>0.133662322517246</v>
+        <v>0.2621677773037518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06563441010791848</v>
+        <v>0.1475757048354023</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2762533222500423</v>
+        <v>0.5931993339262789</v>
       </c>
       <c r="H8">
-        <v>0.2791841488292377</v>
+        <v>0.7357210201896365</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6704549474603283</v>
+        <v>0.2096565256678531</v>
       </c>
       <c r="L8">
-        <v>0.1437527498345688</v>
+        <v>0.1885460034658664</v>
       </c>
       <c r="M8">
-        <v>0.1844157880233475</v>
+        <v>0.1358152384374165</v>
       </c>
       <c r="N8">
-        <v>0.8967310233562635</v>
+        <v>1.740212363779648</v>
       </c>
       <c r="O8">
-        <v>1.117539779986004</v>
+        <v>2.6386597993028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.113926260823092</v>
+        <v>0.5153734635564433</v>
       </c>
       <c r="C9">
-        <v>0.1292831958760594</v>
+        <v>0.2595241822427674</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06930462671594029</v>
+        <v>0.1465157295003401</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2774289359342745</v>
+        <v>0.5826273064104086</v>
       </c>
       <c r="H9">
-        <v>0.2677291115911231</v>
+        <v>0.7233844621923993</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8895418138392017</v>
+        <v>0.2782142747421403</v>
       </c>
       <c r="L9">
-        <v>0.1786258990440572</v>
+        <v>0.1957075893008167</v>
       </c>
       <c r="M9">
-        <v>0.2439873289882613</v>
+        <v>0.1518641099739924</v>
       </c>
       <c r="N9">
-        <v>0.8201790527367514</v>
+        <v>1.705653739300804</v>
       </c>
       <c r="O9">
-        <v>1.096762145763108</v>
+        <v>2.590907838312006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.322330952837632</v>
+        <v>0.5757319247110786</v>
       </c>
       <c r="C10">
-        <v>0.1264278062593291</v>
+        <v>0.2578137131661649</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07248836526499147</v>
+        <v>0.1460255376490807</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2818456791561843</v>
+        <v>0.5764642414502603</v>
       </c>
       <c r="H10">
-        <v>0.2614824915549718</v>
+        <v>0.7155738835081635</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.050608279774849</v>
+        <v>0.3283292669257207</v>
       </c>
       <c r="L10">
-        <v>0.2050787635087232</v>
+        <v>0.2013899631244982</v>
       </c>
       <c r="M10">
-        <v>0.288282460852578</v>
+        <v>0.1638896720886436</v>
       </c>
       <c r="N10">
-        <v>0.7690078537569605</v>
+        <v>1.682773679330793</v>
       </c>
       <c r="O10">
-        <v>1.093535794578301</v>
+        <v>2.561813725054179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.417540301896423</v>
+        <v>0.6032819815232813</v>
       </c>
       <c r="C11">
-        <v>0.1252085879371414</v>
+        <v>0.2570854904100877</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07405229238778333</v>
+        <v>0.1458648844463823</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2847178931730809</v>
+        <v>0.5740088548473068</v>
       </c>
       <c r="H11">
-        <v>0.2591511050488293</v>
+        <v>0.712291826649988</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.123983180205698</v>
+        <v>0.3510688649908218</v>
       </c>
       <c r="L11">
-        <v>0.2173237034590727</v>
+        <v>0.2040656742335472</v>
       </c>
       <c r="M11">
-        <v>0.3085801839100242</v>
+        <v>0.169410199228814</v>
       </c>
       <c r="N11">
-        <v>0.7469002986965307</v>
+        <v>1.672908493155649</v>
       </c>
       <c r="O11">
-        <v>1.094958468072392</v>
+        <v>2.549876740409573</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.453662312827248</v>
+        <v>0.6137272110837557</v>
       </c>
       <c r="C12">
-        <v>0.1247584705462401</v>
+        <v>0.2568168716567278</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07466198498870114</v>
+        <v>0.145812985856498</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2859376840240984</v>
+        <v>0.5731291374903478</v>
       </c>
       <c r="H12">
-        <v>0.258345121872587</v>
+        <v>0.7110878996335757</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.151790147506603</v>
+        <v>0.3596709979224784</v>
       </c>
       <c r="L12">
-        <v>0.2219935523425676</v>
+        <v>0.2050918727856441</v>
       </c>
       <c r="M12">
-        <v>0.3162903779339956</v>
+        <v>0.171507751461867</v>
       </c>
       <c r="N12">
-        <v>0.7387033566842369</v>
+        <v>1.669250804221054</v>
       </c>
       <c r="O12">
-        <v>1.095937213846767</v>
+        <v>2.545543036101563</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.445879586826607</v>
+        <v>0.6114770939618097</v>
       </c>
       <c r="C13">
-        <v>0.1248548947929784</v>
+        <v>0.2568744062676949</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07452988607976607</v>
+        <v>0.1458237660845576</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2856689700809483</v>
+        <v>0.5733163726938741</v>
       </c>
       <c r="H13">
-        <v>0.2585152285831924</v>
+        <v>0.7113454568978526</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.145800357474684</v>
+        <v>0.357818777054149</v>
       </c>
       <c r="L13">
-        <v>0.2209863088398265</v>
+        <v>0.2048702873546944</v>
       </c>
       <c r="M13">
-        <v>0.3146287432873649</v>
+        <v>0.1710556949223019</v>
       </c>
       <c r="N13">
-        <v>0.740460839073716</v>
+        <v>1.670035082761519</v>
       </c>
       <c r="O13">
-        <v>1.095706450948356</v>
+        <v>2.5464680804088</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.420510652778461</v>
+        <v>0.6041410679575847</v>
       </c>
       <c r="C14">
-        <v>0.1251713238907364</v>
+        <v>0.2570632479835808</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07410209712939775</v>
+        <v>0.1458604357549156</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2848155500117571</v>
+        <v>0.5739354761504103</v>
       </c>
       <c r="H14">
-        <v>0.2590832351882995</v>
+        <v>0.7121919992143759</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.12627040735407</v>
+        <v>0.3517767482021554</v>
       </c>
       <c r="L14">
-        <v>0.2177072190891778</v>
+        <v>0.2041498408756439</v>
       </c>
       <c r="M14">
-        <v>0.3092140116914948</v>
+        <v>0.1695826256958384</v>
       </c>
       <c r="N14">
-        <v>0.7462223920585984</v>
+        <v>1.672606009064367</v>
       </c>
       <c r="O14">
-        <v>1.095030027076589</v>
+        <v>2.549516465261974</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.404980651996055</v>
+        <v>0.5996491628164335</v>
       </c>
       <c r="C15">
-        <v>0.1253666565312521</v>
+        <v>0.2571798484133971</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07384236446857173</v>
+        <v>0.1458840600909461</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2843102613170032</v>
+        <v>0.5743212176405379</v>
       </c>
       <c r="H15">
-        <v>0.2594412723725483</v>
+        <v>0.7127155973050634</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.114310744240697</v>
+        <v>0.3480746617604211</v>
       </c>
       <c r="L15">
-        <v>0.215703052122123</v>
+        <v>0.2037102323948261</v>
       </c>
       <c r="M15">
-        <v>0.3059005246108839</v>
+        <v>0.1686812418039239</v>
       </c>
       <c r="N15">
-        <v>0.7497744575704814</v>
+        <v>1.674190937724802</v>
       </c>
       <c r="O15">
-        <v>1.094673747203743</v>
+        <v>2.551407983643102</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.316117792802032</v>
+        <v>0.5739332683750433</v>
       </c>
       <c r="C16">
-        <v>0.1265090984979764</v>
+        <v>0.2578623054283931</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07238855654506438</v>
+        <v>0.1460372888164869</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.281676016869298</v>
+        <v>0.5766317147565019</v>
       </c>
       <c r="H16">
-        <v>0.2616454143402862</v>
+        <v>0.7157938224493847</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.045815705904175</v>
+        <v>0.326841969528374</v>
       </c>
       <c r="L16">
-        <v>0.2042829970843769</v>
+        <v>0.2012169181429897</v>
       </c>
       <c r="M16">
-        <v>0.2869591512445169</v>
+        <v>0.1635298869939277</v>
       </c>
       <c r="N16">
-        <v>0.7704767265601262</v>
+        <v>1.683429316077063</v>
       </c>
       <c r="O16">
-        <v>1.093503034157408</v>
+        <v>2.562619948056593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261713993280068</v>
+        <v>0.5581806367636659</v>
       </c>
       <c r="C17">
-        <v>0.1272304439079228</v>
+        <v>0.2582937249867214</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07152689224818687</v>
+        <v>0.1461472367745777</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2802866169995042</v>
+        <v>0.5781383255055843</v>
       </c>
       <c r="H17">
-        <v>0.263130689908543</v>
+        <v>0.717751588046994</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.003827511117095</v>
+        <v>0.3138011817716801</v>
       </c>
       <c r="L17">
-        <v>0.197333081987054</v>
+        <v>0.1997105367191665</v>
       </c>
       <c r="M17">
-        <v>0.2753788865912483</v>
+        <v>0.1603824091767763</v>
       </c>
       <c r="N17">
-        <v>0.7834811309463561</v>
+        <v>1.689235818723123</v>
       </c>
       <c r="O17">
-        <v>1.093542052605528</v>
+        <v>2.569830529800484</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.230459848281697</v>
+        <v>0.5491289064633804</v>
       </c>
       <c r="C18">
-        <v>0.1276528387063465</v>
+        <v>0.2585465626030157</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07104211649238223</v>
+        <v>0.1462163450381091</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2795681945739119</v>
+        <v>0.5790376639294621</v>
       </c>
       <c r="H18">
-        <v>0.264032786263293</v>
+        <v>0.7189031554695262</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9796864826375611</v>
+        <v>0.306295041139748</v>
       </c>
       <c r="L18">
-        <v>0.1933554111043918</v>
+        <v>0.1988526550116347</v>
       </c>
       <c r="M18">
-        <v>0.2687319533030603</v>
+        <v>0.1585767818601411</v>
       </c>
       <c r="N18">
-        <v>0.7910706889727841</v>
+        <v>1.692626684405088</v>
       </c>
       <c r="O18">
-        <v>1.093835010998106</v>
+        <v>2.574100051837007</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.219883873327802</v>
+        <v>0.5460656733731923</v>
       </c>
       <c r="C19">
-        <v>0.1277971384473382</v>
+        <v>0.258632976590274</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07087981502957419</v>
+        <v>0.1462407527484686</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2793385755322788</v>
+        <v>0.5793477934165594</v>
       </c>
       <c r="H19">
-        <v>0.2643463279459084</v>
+        <v>0.7192974398757244</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9715141841382149</v>
+        <v>0.3037526752183055</v>
       </c>
       <c r="L19">
-        <v>0.1920119542636769</v>
+        <v>0.1985636619871514</v>
       </c>
       <c r="M19">
-        <v>0.2664836955182359</v>
+        <v>0.1579662423911188</v>
       </c>
       <c r="N19">
-        <v>0.7936590463678677</v>
+        <v>1.693783554535088</v>
       </c>
       <c r="O19">
-        <v>1.093979942141203</v>
+        <v>2.575566626922011</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.267501420614565</v>
+        <v>0.5598566290896088</v>
       </c>
       <c r="C20">
-        <v>0.1271528788574798</v>
+        <v>0.258247313779453</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07161749099013193</v>
+        <v>0.1461349253903172</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.280426109540663</v>
+        <v>0.5779745519747124</v>
       </c>
       <c r="H20">
-        <v>0.2629676074702942</v>
+        <v>0.7175405405147686</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.008296201050626</v>
+        <v>0.3151899610963653</v>
       </c>
       <c r="L20">
-        <v>0.1980708515995246</v>
+        <v>0.1998700094352728</v>
       </c>
       <c r="M20">
-        <v>0.2766101859467938</v>
+        <v>0.1607169762631102</v>
       </c>
       <c r="N20">
-        <v>0.782085384016014</v>
+        <v>1.688612416351543</v>
       </c>
       <c r="O20">
-        <v>1.093509729355077</v>
+        <v>2.569050305900404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.427960186716518</v>
+        <v>0.6062954997366603</v>
       </c>
       <c r="C21">
-        <v>0.1250780659639901</v>
+        <v>0.2570075869550301</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07422726814808911</v>
+        <v>0.1458494226418345</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2850625674158636</v>
+        <v>0.5737522711056897</v>
       </c>
       <c r="H21">
-        <v>0.2589142830497195</v>
+        <v>0.7119422934636859</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.132006190871238</v>
+        <v>0.3535516831559846</v>
       </c>
       <c r="L21">
-        <v>0.2186694517232013</v>
+        <v>0.2043611023105285</v>
       </c>
       <c r="M21">
-        <v>0.3108037793581602</v>
+        <v>0.170015111716566</v>
       </c>
       <c r="N21">
-        <v>0.7445252900581849</v>
+        <v>1.671848748009047</v>
       </c>
       <c r="O21">
-        <v>1.095216566294482</v>
+        <v>2.548616017915137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.533232493505324</v>
+        <v>0.6367192221275673</v>
       </c>
       <c r="C22">
-        <v>0.1237895737494163</v>
+        <v>0.2562389776910727</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07603514232792108</v>
+        <v>0.1457149110218658</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2888670701827465</v>
+        <v>0.5712847003262524</v>
       </c>
       <c r="H22">
-        <v>0.2567149782828579</v>
+        <v>0.7085103263935437</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.212986341030728</v>
+        <v>0.3785714037366574</v>
       </c>
       <c r="L22">
-        <v>0.2323252120593224</v>
+        <v>0.2073718190695359</v>
       </c>
       <c r="M22">
-        <v>0.3332918514134846</v>
+        <v>0.1761329959075155</v>
       </c>
       <c r="N22">
-        <v>0.720999153183957</v>
+        <v>1.661347594389337</v>
       </c>
       <c r="O22">
-        <v>1.09890911475155</v>
+        <v>2.536348476631531</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.477006292108513</v>
+        <v>0.6204750417803666</v>
       </c>
       <c r="C23">
-        <v>0.1244710503376609</v>
+        <v>0.256645399867562</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07506060262202752</v>
+        <v>0.1457819458483272</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2867629086805294</v>
+        <v>0.5725749740439952</v>
       </c>
       <c r="H23">
-        <v>0.2578464281051112</v>
+        <v>0.7103212966310153</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.169751722133498</v>
+        <v>0.3652228284928469</v>
       </c>
       <c r="L23">
-        <v>0.2250182979684183</v>
+        <v>0.2057580611739951</v>
       </c>
       <c r="M23">
-        <v>0.3212757603244825</v>
+        <v>0.1728640617341313</v>
       </c>
       <c r="N23">
-        <v>0.733459819635069</v>
+        <v>1.666910652615933</v>
       </c>
       <c r="O23">
-        <v>1.096694115760116</v>
+        <v>2.54279642216872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264884852820046</v>
+        <v>0.5590988983668126</v>
       </c>
       <c r="C24">
-        <v>0.1271879220924568</v>
+        <v>0.2582682813062824</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0715764983249727</v>
+        <v>0.1461404729946949</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2803627952562664</v>
+        <v>0.5780484906742132</v>
       </c>
       <c r="H24">
-        <v>0.2630411871963574</v>
+        <v>0.717635874044376</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.006275911344602</v>
+        <v>0.3145621213910204</v>
       </c>
       <c r="L24">
-        <v>0.197737250308009</v>
+        <v>0.1997978864059462</v>
       </c>
       <c r="M24">
-        <v>0.2760534823318039</v>
+        <v>0.1605657063256061</v>
       </c>
       <c r="N24">
-        <v>0.7827160492377558</v>
+        <v>1.688894092621982</v>
       </c>
       <c r="O24">
-        <v>1.093523501896215</v>
+        <v>2.569402658675898</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.037474414207708</v>
+        <v>0.493232572134616</v>
       </c>
       <c r="C25">
-        <v>0.1304046881144103</v>
+        <v>0.2601985007193583</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06822934347431087</v>
+        <v>0.1467516956276533</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2765165726367798</v>
+        <v>0.5852056004821335</v>
       </c>
       <c r="H25">
-        <v>0.2704597633769836</v>
+        <v>0.7265014578613105</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8302800526826388</v>
+        <v>0.2597108832355843</v>
       </c>
       <c r="L25">
-        <v>0.169055528502831</v>
+        <v>0.1936960435454012</v>
       </c>
       <c r="M25">
-        <v>0.2277892369220531</v>
+        <v>0.1474808844331257</v>
       </c>
       <c r="N25">
-        <v>0.840020631587663</v>
+        <v>1.714561443615949</v>
       </c>
       <c r="O25">
-        <v>1.100358380382644</v>
+        <v>2.60277358843642</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4450399954297666</v>
+        <v>0.8708534503332999</v>
       </c>
       <c r="C2">
-        <v>0.2617755575175842</v>
+        <v>0.1330158170292464</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1473957609363019</v>
+        <v>0.06608856021687259</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5915530940608633</v>
+        <v>0.2760364106056485</v>
       </c>
       <c r="H2">
-        <v>0.7338712398171623</v>
+        <v>0.2773640890678237</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2191570370909233</v>
+        <v>0.7007408136591664</v>
       </c>
       <c r="L2">
-        <v>0.1894865821604412</v>
+        <v>0.1484853935735089</v>
       </c>
       <c r="M2">
-        <v>0.1380051491995147</v>
+        <v>0.1925966504238446</v>
       </c>
       <c r="N2">
-        <v>1.735146594377166</v>
+        <v>0.8855917358276777</v>
       </c>
       <c r="O2">
-        <v>2.631368660826297</v>
+        <v>1.11337201812492</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4125773520567861</v>
+        <v>0.758270585446013</v>
       </c>
       <c r="C3">
-        <v>0.2629422262831156</v>
+        <v>0.1349351006646806</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1479537794625685</v>
+        <v>0.06482569626430212</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5965272105873609</v>
+        <v>0.2770485380864969</v>
       </c>
       <c r="H3">
-        <v>0.7393926312946917</v>
+        <v>0.2828872670968536</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1915746033014472</v>
+        <v>0.6128679294739641</v>
       </c>
       <c r="L3">
-        <v>0.1868115878728389</v>
+        <v>0.1348436176304872</v>
       </c>
       <c r="M3">
-        <v>0.1316839357053077</v>
+        <v>0.1689154911427053</v>
       </c>
       <c r="N3">
-        <v>1.750151953579714</v>
+        <v>0.9184837650515334</v>
       </c>
       <c r="O3">
-        <v>2.653261325625095</v>
+        <v>1.126779067260131</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3927459779189064</v>
+        <v>0.6892585349889089</v>
       </c>
       <c r="C4">
-        <v>0.2637070686545115</v>
+        <v>0.1361868558884964</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1483565256792083</v>
+        <v>0.06413864613149833</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5999130226853993</v>
+        <v>0.2782893164937974</v>
       </c>
       <c r="H4">
-        <v>0.7430431519180374</v>
+        <v>0.2866775196727147</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1745924537895007</v>
+        <v>0.5588395975639884</v>
       </c>
       <c r="L4">
-        <v>0.1852572552978131</v>
+        <v>0.1266016306139193</v>
       </c>
       <c r="M4">
-        <v>0.1278529675646638</v>
+        <v>0.1544448088365158</v>
       </c>
       <c r="N4">
-        <v>1.759886326140663</v>
+        <v>0.9396388824963644</v>
       </c>
       <c r="O4">
-        <v>2.667944423447992</v>
+        <v>1.137151831554576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3846905352847898</v>
+        <v>0.6611574424577782</v>
       </c>
       <c r="C5">
-        <v>0.2640309765569313</v>
+        <v>0.1367153103462222</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1485357946542116</v>
+        <v>0.06388027090773463</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.6013761829536577</v>
+        <v>0.2789449325743618</v>
       </c>
       <c r="H5">
-        <v>0.7445963109172311</v>
+        <v>0.2883199343132432</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1676608909734796</v>
+        <v>0.5367997469193</v>
       </c>
       <c r="L5">
-        <v>0.1846460965908463</v>
+        <v>0.1232748588570303</v>
       </c>
       <c r="M5">
-        <v>0.1263045974731405</v>
+        <v>0.1485635570149739</v>
       </c>
       <c r="N5">
-        <v>1.763984274442475</v>
+        <v>0.9484964364046498</v>
       </c>
       <c r="O5">
-        <v>2.674240107995416</v>
+        <v>1.141899757215668</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3833545248660073</v>
+        <v>0.6564924051619414</v>
       </c>
       <c r="C6">
-        <v>0.2640855007264058</v>
+        <v>0.1368041660685009</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1485664777959101</v>
+        <v>0.06383865515293508</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.6016241779058902</v>
+        <v>0.2790626922907009</v>
       </c>
       <c r="H6">
-        <v>0.7448581724806544</v>
+        <v>0.288598495738718</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1665092478193628</v>
+        <v>0.5331385458269295</v>
       </c>
       <c r="L6">
-        <v>0.1845459601526969</v>
+        <v>0.1227243261422828</v>
       </c>
       <c r="M6">
-        <v>0.1260482677274695</v>
+        <v>0.1475878737477991</v>
       </c>
       <c r="N6">
-        <v>1.764672657399778</v>
+        <v>0.9499813913540862</v>
       </c>
       <c r="O6">
-        <v>2.675304362775833</v>
+        <v>1.142719114901197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3926372332530548</v>
+        <v>0.6888794740543176</v>
       </c>
       <c r="C7">
-        <v>0.2637113874356736</v>
+        <v>0.1361939085977397</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1483588819967387</v>
+        <v>0.06413507491689074</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5999324176217655</v>
+        <v>0.2782975584917864</v>
       </c>
       <c r="H7">
-        <v>0.7430638328899022</v>
+        <v>0.286699276834014</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1744990170251413</v>
+        <v>0.5585424584633216</v>
       </c>
       <c r="L7">
-        <v>0.1852489228182534</v>
+        <v>0.1265566377755505</v>
       </c>
       <c r="M7">
-        <v>0.1278320337750962</v>
+        <v>0.1543654311499942</v>
       </c>
       <c r="N7">
-        <v>1.759941061504396</v>
+        <v>0.9397573861609096</v>
       </c>
       <c r="O7">
-        <v>2.668028064932514</v>
+        <v>1.137213776935795</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4338263310911259</v>
+        <v>0.8320068886424679</v>
       </c>
       <c r="C8">
-        <v>0.2621677773037518</v>
+        <v>0.1336623225172566</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1475757048354023</v>
+        <v>0.0656344101079025</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5931993339262789</v>
+        <v>0.2762533222499712</v>
       </c>
       <c r="H8">
-        <v>0.7357210201896365</v>
+        <v>0.2791841488292377</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2096565256678531</v>
+        <v>0.670454947460442</v>
       </c>
       <c r="L8">
-        <v>0.1885460034658664</v>
+        <v>0.1437527498345048</v>
       </c>
       <c r="M8">
-        <v>0.1358152384374165</v>
+        <v>0.1844157880233475</v>
       </c>
       <c r="N8">
-        <v>1.740212363779648</v>
+        <v>0.8967310233561996</v>
       </c>
       <c r="O8">
-        <v>2.6386597993028</v>
+        <v>1.117539779985975</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5153734635564433</v>
+        <v>1.113926260823007</v>
       </c>
       <c r="C9">
-        <v>0.2595241822427674</v>
+        <v>0.1292831958758285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1465157295003401</v>
+        <v>0.06930462671594029</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5826273064104086</v>
+        <v>0.2774289359342745</v>
       </c>
       <c r="H9">
-        <v>0.7233844621923993</v>
+        <v>0.2677291115911231</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2782142747421403</v>
+        <v>0.8895418138393438</v>
       </c>
       <c r="L9">
-        <v>0.1957075893008167</v>
+        <v>0.1786258990440928</v>
       </c>
       <c r="M9">
-        <v>0.1518641099739924</v>
+        <v>0.2439873289882577</v>
       </c>
       <c r="N9">
-        <v>1.705653739300804</v>
+        <v>0.8201790527367656</v>
       </c>
       <c r="O9">
-        <v>2.590907838312006</v>
+        <v>1.096762145763122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5757319247110786</v>
+        <v>1.322330952837632</v>
       </c>
       <c r="C10">
-        <v>0.2578137131661649</v>
+        <v>0.1264278062594038</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1460255376490807</v>
+        <v>0.07248836526499858</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5764642414502603</v>
+        <v>0.2818456791560635</v>
       </c>
       <c r="H10">
-        <v>0.7155738835081635</v>
+        <v>0.2614824915549576</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3283292669257207</v>
+        <v>1.050608279774906</v>
       </c>
       <c r="L10">
-        <v>0.2013899631244982</v>
+        <v>0.2050787635087801</v>
       </c>
       <c r="M10">
-        <v>0.1638896720886436</v>
+        <v>0.2882824608525922</v>
       </c>
       <c r="N10">
-        <v>1.682773679330793</v>
+        <v>0.7690078537569427</v>
       </c>
       <c r="O10">
-        <v>2.561813725054179</v>
+        <v>1.093535794578344</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6032819815232813</v>
+        <v>1.417540301896423</v>
       </c>
       <c r="C11">
-        <v>0.2570854904100877</v>
+        <v>0.1252085879371343</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1458648844463823</v>
+        <v>0.07405229238777977</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5740088548473068</v>
+        <v>0.2847178931731378</v>
       </c>
       <c r="H11">
-        <v>0.712291826649988</v>
+        <v>0.2591511050488293</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3510688649908218</v>
+        <v>1.12398318020567</v>
       </c>
       <c r="L11">
-        <v>0.2040656742335472</v>
+        <v>0.2173237034591295</v>
       </c>
       <c r="M11">
-        <v>0.169410199228814</v>
+        <v>0.3085801839100242</v>
       </c>
       <c r="N11">
-        <v>1.672908493155649</v>
+        <v>0.7469002986965911</v>
       </c>
       <c r="O11">
-        <v>2.549876740409573</v>
+        <v>1.094958468072392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6137272110837557</v>
+        <v>1.453662312827362</v>
       </c>
       <c r="C12">
-        <v>0.2568168716567278</v>
+        <v>0.124758470546233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.145812985856498</v>
+        <v>0.07466198498867627</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5731291374903478</v>
+        <v>0.2859376840240841</v>
       </c>
       <c r="H12">
-        <v>0.7110878996335757</v>
+        <v>0.2583451218727006</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3596709979224784</v>
+        <v>1.151790147506802</v>
       </c>
       <c r="L12">
-        <v>0.2050918727856441</v>
+        <v>0.2219935523425818</v>
       </c>
       <c r="M12">
-        <v>0.171507751461867</v>
+        <v>0.3162903779340027</v>
       </c>
       <c r="N12">
-        <v>1.669250804221054</v>
+        <v>0.7387033566841623</v>
       </c>
       <c r="O12">
-        <v>2.545543036101563</v>
+        <v>1.095937213846781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6114770939618097</v>
+        <v>1.445879586826578</v>
       </c>
       <c r="C13">
-        <v>0.2568744062676949</v>
+        <v>0.124854894792982</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1458237660845576</v>
+        <v>0.07452988607977673</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.5733163726938741</v>
+        <v>0.2856689700808204</v>
       </c>
       <c r="H13">
-        <v>0.7113454568978526</v>
+        <v>0.2585152285833132</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.357818777054149</v>
+        <v>1.145800357474513</v>
       </c>
       <c r="L13">
-        <v>0.2048702873546944</v>
+        <v>0.2209863088398407</v>
       </c>
       <c r="M13">
-        <v>0.1710556949223019</v>
+        <v>0.314628743287372</v>
       </c>
       <c r="N13">
-        <v>1.670035082761519</v>
+        <v>0.7404608390737302</v>
       </c>
       <c r="O13">
-        <v>2.5464680804088</v>
+        <v>1.095706450948313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6041410679575847</v>
+        <v>1.420510652778603</v>
       </c>
       <c r="C14">
-        <v>0.2570632479835808</v>
+        <v>0.1251713238909744</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1458604357549156</v>
+        <v>0.07410209712939775</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5739354761504103</v>
+        <v>0.2848155500118068</v>
       </c>
       <c r="H14">
-        <v>0.7121919992143759</v>
+        <v>0.2590832351881787</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3517767482021554</v>
+        <v>1.126270407354014</v>
       </c>
       <c r="L14">
-        <v>0.2041498408756439</v>
+        <v>0.2177072190892346</v>
       </c>
       <c r="M14">
-        <v>0.1695826256958384</v>
+        <v>0.3092140116915019</v>
       </c>
       <c r="N14">
-        <v>1.672606009064367</v>
+        <v>0.7462223920585949</v>
       </c>
       <c r="O14">
-        <v>2.549516465261974</v>
+        <v>1.095030027076533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5996491628164335</v>
+        <v>1.404980651996198</v>
       </c>
       <c r="C15">
-        <v>0.2571798484133971</v>
+        <v>0.1253666565313196</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1458840600909461</v>
+        <v>0.07384236446858949</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5743212176405379</v>
+        <v>0.2843102613170601</v>
       </c>
       <c r="H15">
-        <v>0.7127155973050634</v>
+        <v>0.2594412723724275</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3480746617604211</v>
+        <v>1.114310744240754</v>
       </c>
       <c r="L15">
-        <v>0.2037102323948261</v>
+        <v>0.2157030521220946</v>
       </c>
       <c r="M15">
-        <v>0.1686812418039239</v>
+        <v>0.305900524610891</v>
       </c>
       <c r="N15">
-        <v>1.674190937724802</v>
+        <v>0.7497744575704779</v>
       </c>
       <c r="O15">
-        <v>2.551407983643102</v>
+        <v>1.094673747203814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5739332683750433</v>
+        <v>1.316117792802061</v>
       </c>
       <c r="C16">
-        <v>0.2578623054283931</v>
+        <v>0.1265090984983743</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1460372888164869</v>
+        <v>0.07238855654506082</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5766317147565019</v>
+        <v>0.281676016869298</v>
       </c>
       <c r="H16">
-        <v>0.7157938224493847</v>
+        <v>0.2616454143402862</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.326841969528374</v>
+        <v>1.045815705904147</v>
       </c>
       <c r="L16">
-        <v>0.2012169181429897</v>
+        <v>0.2042829970843769</v>
       </c>
       <c r="M16">
-        <v>0.1635298869939277</v>
+        <v>0.286959151244524</v>
       </c>
       <c r="N16">
-        <v>1.683429316077063</v>
+        <v>0.7704767265601333</v>
       </c>
       <c r="O16">
-        <v>2.562619948056593</v>
+        <v>1.093503034157408</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5581806367636659</v>
+        <v>1.261713993280068</v>
       </c>
       <c r="C17">
-        <v>0.2582937249867214</v>
+        <v>0.1272304439081609</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1461472367745777</v>
+        <v>0.07152689224821884</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.5781383255055843</v>
+        <v>0.280286616999561</v>
       </c>
       <c r="H17">
-        <v>0.717751588046994</v>
+        <v>0.2631306899086567</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3138011817716801</v>
+        <v>1.003827511116953</v>
       </c>
       <c r="L17">
-        <v>0.1997105367191665</v>
+        <v>0.1973330819870682</v>
       </c>
       <c r="M17">
-        <v>0.1603824091767763</v>
+        <v>0.2753788865912625</v>
       </c>
       <c r="N17">
-        <v>1.689235818723123</v>
+        <v>0.7834811309463596</v>
       </c>
       <c r="O17">
-        <v>2.569830529800484</v>
+        <v>1.093542052605528</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5491289064633804</v>
+        <v>1.230459848281527</v>
       </c>
       <c r="C18">
-        <v>0.2585465626030157</v>
+        <v>0.1276528387062754</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1462163450381091</v>
+        <v>0.07104211649236802</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5790376639294621</v>
+        <v>0.2795681945738977</v>
       </c>
       <c r="H18">
-        <v>0.7189031554695262</v>
+        <v>0.2640327862633001</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.306295041139748</v>
+        <v>0.9796864826375042</v>
       </c>
       <c r="L18">
-        <v>0.1988526550116347</v>
+        <v>0.1933554111045055</v>
       </c>
       <c r="M18">
-        <v>0.1585767818601411</v>
+        <v>0.2687319533030568</v>
       </c>
       <c r="N18">
-        <v>1.692626684405088</v>
+        <v>0.7910706889727699</v>
       </c>
       <c r="O18">
-        <v>2.574100051837007</v>
+        <v>1.093835010998049</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5460656733731923</v>
+        <v>1.219883873327774</v>
       </c>
       <c r="C19">
-        <v>0.258632976590274</v>
+        <v>0.1277971384471712</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1462407527484686</v>
+        <v>0.07087981502955643</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5793477934165594</v>
+        <v>0.2793385755322717</v>
       </c>
       <c r="H19">
-        <v>0.7192974398757244</v>
+        <v>0.2643463279459084</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3037526752183055</v>
+        <v>0.9715141841383002</v>
       </c>
       <c r="L19">
-        <v>0.1985636619871514</v>
+        <v>0.1920119542636627</v>
       </c>
       <c r="M19">
-        <v>0.1579662423911188</v>
+        <v>0.2664836955182217</v>
       </c>
       <c r="N19">
-        <v>1.693783554535088</v>
+        <v>0.7936590463678641</v>
       </c>
       <c r="O19">
-        <v>2.575566626922011</v>
+        <v>1.093979942141161</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5598566290896088</v>
+        <v>1.267501420614536</v>
       </c>
       <c r="C20">
-        <v>0.258247313779453</v>
+        <v>0.1271528788577179</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1461349253903172</v>
+        <v>0.07161749099011061</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5779745519747124</v>
+        <v>0.2804261095407199</v>
       </c>
       <c r="H20">
-        <v>0.7175405405147686</v>
+        <v>0.262967607470415</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3151899610963653</v>
+        <v>1.008296201050655</v>
       </c>
       <c r="L20">
-        <v>0.1998700094352728</v>
+        <v>0.1980708515996099</v>
       </c>
       <c r="M20">
-        <v>0.1607169762631102</v>
+        <v>0.276610185946808</v>
       </c>
       <c r="N20">
-        <v>1.688612416351543</v>
+        <v>0.7820853840160353</v>
       </c>
       <c r="O20">
-        <v>2.569050305900404</v>
+        <v>1.093509729355105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6062954997366603</v>
+        <v>1.427960186716689</v>
       </c>
       <c r="C21">
-        <v>0.2570075869550301</v>
+        <v>0.1250780659642317</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1458494226418345</v>
+        <v>0.074227268148082</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5737522711056897</v>
+        <v>0.2850625674158707</v>
       </c>
       <c r="H21">
-        <v>0.7119422934636859</v>
+        <v>0.2589142830496058</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3535516831559846</v>
+        <v>1.132006190871323</v>
       </c>
       <c r="L21">
-        <v>0.2043611023105285</v>
+        <v>0.2186694517231587</v>
       </c>
       <c r="M21">
-        <v>0.170015111716566</v>
+        <v>0.3108037793581673</v>
       </c>
       <c r="N21">
-        <v>1.671848748009047</v>
+        <v>0.744525290058192</v>
       </c>
       <c r="O21">
-        <v>2.548616017915137</v>
+        <v>1.095216566294482</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6367192221275673</v>
+        <v>1.533232493505238</v>
       </c>
       <c r="C22">
-        <v>0.2562389776910727</v>
+        <v>0.1237895737494732</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1457149110218658</v>
+        <v>0.07603514232793174</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.5712847003262524</v>
+        <v>0.2888670701827536</v>
       </c>
       <c r="H22">
-        <v>0.7085103263935437</v>
+        <v>0.2567149782827371</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3785714037366574</v>
+        <v>1.212986341030785</v>
       </c>
       <c r="L22">
-        <v>0.2073718190695359</v>
+        <v>0.2323252120593651</v>
       </c>
       <c r="M22">
-        <v>0.1761329959075155</v>
+        <v>0.3332918514134704</v>
       </c>
       <c r="N22">
-        <v>1.661347594389337</v>
+        <v>0.7209991531839428</v>
       </c>
       <c r="O22">
-        <v>2.536348476631531</v>
+        <v>1.098909114751578</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6204750417803666</v>
+        <v>1.477006292108683</v>
       </c>
       <c r="C23">
-        <v>0.256645399867562</v>
+        <v>0.1244710503378954</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1457819458483272</v>
+        <v>0.07506060262202752</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.5725749740439952</v>
+        <v>0.2867629086806289</v>
       </c>
       <c r="H23">
-        <v>0.7103212966310153</v>
+        <v>0.2578464281049975</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3652228284928469</v>
+        <v>1.169751722133384</v>
       </c>
       <c r="L23">
-        <v>0.2057580611739951</v>
+        <v>0.2250182979683331</v>
       </c>
       <c r="M23">
-        <v>0.1728640617341313</v>
+        <v>0.3212757603244754</v>
       </c>
       <c r="N23">
-        <v>1.666910652615933</v>
+        <v>0.733459819634998</v>
       </c>
       <c r="O23">
-        <v>2.54279642216872</v>
+        <v>1.096694115760087</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5590988983668126</v>
+        <v>1.264884852819961</v>
       </c>
       <c r="C24">
-        <v>0.2582682813062824</v>
+        <v>0.1271879220920447</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1461404729946949</v>
+        <v>0.07157649832501534</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5780484906742132</v>
+        <v>0.2803627952562096</v>
       </c>
       <c r="H24">
-        <v>0.717635874044376</v>
+        <v>0.2630411871962437</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3145621213910204</v>
+        <v>1.006275911344574</v>
       </c>
       <c r="L24">
-        <v>0.1997978864059462</v>
+        <v>0.1977372503080801</v>
       </c>
       <c r="M24">
-        <v>0.1605657063256061</v>
+        <v>0.2760534823318039</v>
       </c>
       <c r="N24">
-        <v>1.688894092621982</v>
+        <v>0.7827160492377487</v>
       </c>
       <c r="O24">
-        <v>2.569402658675898</v>
+        <v>1.093523501896215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.493232572134616</v>
+        <v>1.037474414207679</v>
       </c>
       <c r="C25">
-        <v>0.2601985007193583</v>
+        <v>0.1304046881144707</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1467516956276533</v>
+        <v>0.06822934347431264</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5852056004821335</v>
+        <v>0.2765165726367655</v>
       </c>
       <c r="H25">
-        <v>0.7265014578613105</v>
+        <v>0.270459763376877</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2597108832355843</v>
+        <v>0.8302800526826388</v>
       </c>
       <c r="L25">
-        <v>0.1936960435454012</v>
+        <v>0.169055528502831</v>
       </c>
       <c r="M25">
-        <v>0.1474808844331257</v>
+        <v>0.227789236922046</v>
       </c>
       <c r="N25">
-        <v>1.714561443615949</v>
+        <v>0.8400206315876488</v>
       </c>
       <c r="O25">
-        <v>2.60277358843642</v>
+        <v>1.100358380382602</v>
       </c>
     </row>
   </sheetData>
